--- a/data-raw/datasets_PeerInstitution.xlsx
+++ b/data-raw/datasets_PeerInstitution.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilioxavieresposito/GitHub/theHUB/data-raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A59E3E-24B1-CA45-A8BA-225AF103153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="35500" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="MSUpeers" sheetId="1" r:id="rId1"/>
     <sheet name="WMUpeers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2282,17 +2276,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2320,29 +2309,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2384,7 +2364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2416,27 +2396,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2468,24 +2430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2661,110 +2605,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2790,10 +2711,10 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>39.166089999999997</v>
+        <v>39.16609</v>
       </c>
       <c r="J2">
-        <v>-86.526559000000006</v>
+        <v>-86.526559</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2832,7 +2753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2858,10 +2779,10 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>42.732120000000002</v>
+        <v>42.73212</v>
       </c>
       <c r="J3">
-        <v>-84.476111000000003</v>
+        <v>-84.476111</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -2900,7 +2821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2926,10 +2847,10 @@
         <v>60208</v>
       </c>
       <c r="I4">
-        <v>42.050356000000001</v>
+        <v>42.050356</v>
       </c>
       <c r="J4">
-        <v>-87.679857999999996</v>
+        <v>-87.679858</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -2968,7 +2889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2994,10 +2915,10 @@
         <v>43210</v>
       </c>
       <c r="I5">
-        <v>39.999324000000001</v>
+        <v>39.999324</v>
       </c>
       <c r="J5">
-        <v>-83.014853000000002</v>
+        <v>-83.014853</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -3036,7 +2957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3062,7 +2983,7 @@
         <v>64</v>
       </c>
       <c r="I6">
-        <v>40.796500000000002</v>
+        <v>40.7965</v>
       </c>
       <c r="J6">
         <v>-77.862848</v>
@@ -3104,7 +3025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -3130,7 +3051,7 @@
         <v>64</v>
       </c>
       <c r="I7">
-        <v>40.796500000000002</v>
+        <v>40.7965</v>
       </c>
       <c r="J7">
         <v>-77.862848</v>
@@ -3172,7 +3093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -3198,10 +3119,10 @@
         <v>73</v>
       </c>
       <c r="I8">
-        <v>40.428206000000003</v>
+        <v>40.428206</v>
       </c>
       <c r="J8">
-        <v>-86.914434999999997</v>
+        <v>-86.914435</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -3240,7 +3161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -3266,10 +3187,10 @@
         <v>82</v>
       </c>
       <c r="I9">
-        <v>40.498769000000003</v>
+        <v>40.498769</v>
       </c>
       <c r="J9">
-        <v>-74.446251000000004</v>
+        <v>-74.446251</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -3308,7 +3229,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -3334,10 +3255,10 @@
         <v>90</v>
       </c>
       <c r="I10">
-        <v>40.104717999999998</v>
+        <v>40.104718</v>
       </c>
       <c r="J10">
-        <v>-88.229113999999996</v>
+        <v>-88.229114</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -3376,7 +3297,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3405,7 +3326,7 @@
         <v>41.661935</v>
       </c>
       <c r="J11">
-        <v>-91.536424999999994</v>
+        <v>-91.536425</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -3444,7 +3365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -3470,10 +3391,10 @@
         <v>20742</v>
       </c>
       <c r="I12">
-        <v>38.988177999999998</v>
+        <v>38.988178</v>
       </c>
       <c r="J12">
-        <v>-76.944721000000001</v>
+        <v>-76.944721</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -3512,7 +3433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3538,10 +3459,10 @@
         <v>48109</v>
       </c>
       <c r="I13">
-        <v>42.275920999999997</v>
+        <v>42.275921</v>
       </c>
       <c r="J13">
-        <v>-83.742768999999996</v>
+        <v>-83.742769</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -3580,7 +3501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3606,10 +3527,10 @@
         <v>122</v>
       </c>
       <c r="I14">
-        <v>44.972850999999999</v>
+        <v>44.972851</v>
       </c>
       <c r="J14">
-        <v>-93.235463999999993</v>
+        <v>-93.235464</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -3648,7 +3569,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -3674,10 +3595,10 @@
         <v>131</v>
       </c>
       <c r="I15">
-        <v>40.817597999999997</v>
+        <v>40.817598</v>
       </c>
       <c r="J15">
-        <v>-96.700507999999999</v>
+        <v>-96.700508</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -3716,7 +3637,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -3742,10 +3663,10 @@
         <v>140</v>
       </c>
       <c r="I16">
-        <v>43.075409000000001</v>
+        <v>43.075409</v>
       </c>
       <c r="J16">
-        <v>-89.404098000000005</v>
+        <v>-89.404098</v>
       </c>
       <c r="K16">
         <v>14</v>
@@ -3784,7 +3705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -3852,7 +3773,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -3878,10 +3799,10 @@
         <v>155</v>
       </c>
       <c r="I18">
-        <v>32.232672000000001</v>
+        <v>32.232672</v>
       </c>
       <c r="J18">
-        <v>-110.95081500000001</v>
+        <v>-110.950815</v>
       </c>
       <c r="K18">
         <v>16</v>
@@ -3920,7 +3841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -3946,7 +3867,7 @@
         <v>94720</v>
       </c>
       <c r="I19">
-        <v>37.871918000000001</v>
+        <v>37.871918</v>
       </c>
       <c r="J19">
         <v>-122.260463</v>
@@ -3988,7 +3909,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -4014,7 +3935,7 @@
         <v>171</v>
       </c>
       <c r="I20">
-        <v>34.071779999999997</v>
+        <v>34.07178</v>
       </c>
       <c r="J20">
         <v>-118.442179</v>
@@ -4056,7 +3977,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -4082,10 +4003,10 @@
         <v>180</v>
       </c>
       <c r="I21">
-        <v>40.008780999999999</v>
+        <v>40.008781</v>
       </c>
       <c r="J21">
-        <v>-105.27082299999999</v>
+        <v>-105.270823</v>
       </c>
       <c r="K21">
         <v>19</v>
@@ -4124,7 +4045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4150,10 +4071,10 @@
         <v>97403</v>
       </c>
       <c r="I22">
-        <v>44.045146000000003</v>
+        <v>44.045146</v>
       </c>
       <c r="J22">
-        <v>-123.07579200000001</v>
+        <v>-123.075792</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -4192,7 +4113,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -4218,10 +4139,10 @@
         <v>97331</v>
       </c>
       <c r="I23">
-        <v>44.563949999999998</v>
+        <v>44.56395</v>
       </c>
       <c r="J23">
-        <v>-123.27472299999999</v>
+        <v>-123.274723</v>
       </c>
       <c r="K23">
         <v>21</v>
@@ -4260,7 +4181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4286,10 +4207,10 @@
         <v>90089</v>
       </c>
       <c r="I24">
-        <v>34.021281000000002</v>
+        <v>34.021281</v>
       </c>
       <c r="J24">
-        <v>-118.28416900000001</v>
+        <v>-118.284169</v>
       </c>
       <c r="K24">
         <v>22</v>
@@ -4328,7 +4249,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -4354,7 +4275,7 @@
         <v>94305</v>
       </c>
       <c r="I25">
-        <v>37.429434000000001</v>
+        <v>37.429434</v>
       </c>
       <c r="J25">
         <v>-122.167359</v>
@@ -4396,7 +4317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -4422,10 +4343,10 @@
         <v>212</v>
       </c>
       <c r="I26">
-        <v>40.762484000000001</v>
+        <v>40.762484</v>
       </c>
       <c r="J26">
-        <v>-111.84604400000001</v>
+        <v>-111.846044</v>
       </c>
       <c r="K26">
         <v>24</v>
@@ -4464,7 +4385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -4490,10 +4411,10 @@
         <v>220</v>
       </c>
       <c r="I27">
-        <v>47.655380000000001</v>
+        <v>47.65538</v>
       </c>
       <c r="J27">
-        <v>-122.30513999999999</v>
+        <v>-122.30514</v>
       </c>
       <c r="K27">
         <v>25</v>
@@ -4532,7 +4453,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -4558,7 +4479,7 @@
         <v>228</v>
       </c>
       <c r="I28">
-        <v>46.730448000000003</v>
+        <v>46.730448</v>
       </c>
       <c r="J28">
         <v>-117.158168</v>
@@ -4600,7 +4521,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -4626,10 +4547,10 @@
         <v>47306</v>
       </c>
       <c r="I29">
-        <v>40.203431000000002</v>
+        <v>40.203431</v>
       </c>
       <c r="J29">
-        <v>-85.409042999999997</v>
+        <v>-85.409043</v>
       </c>
       <c r="K29">
         <v>27</v>
@@ -4668,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>237</v>
       </c>
@@ -4694,10 +4615,10 @@
         <v>43403</v>
       </c>
       <c r="I30">
-        <v>41.375512999999998</v>
+        <v>41.375513</v>
       </c>
       <c r="J30">
-        <v>-83.640895999999998</v>
+        <v>-83.640896</v>
       </c>
       <c r="K30">
         <v>28</v>
@@ -4736,7 +4657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -4804,7 +4725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -4830,7 +4751,7 @@
         <v>48197</v>
       </c>
       <c r="I32">
-        <v>42.251674999999999</v>
+        <v>42.251675</v>
       </c>
       <c r="J32">
         <v>-83.627443</v>
@@ -4872,7 +4793,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>257</v>
       </c>
@@ -4898,10 +4819,10 @@
         <v>262</v>
       </c>
       <c r="I33">
-        <v>41.146653000000001</v>
+        <v>41.146653</v>
       </c>
       <c r="J33">
-        <v>-81.342533000000003</v>
+        <v>-81.342533</v>
       </c>
       <c r="K33">
         <v>31</v>
@@ -4940,7 +4861,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -4966,10 +4887,10 @@
         <v>45056</v>
       </c>
       <c r="I34">
-        <v>39.507756999999998</v>
+        <v>39.507757</v>
       </c>
       <c r="J34">
-        <v>-84.732954000000007</v>
+        <v>-84.732954</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -5008,7 +4929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>271</v>
       </c>
@@ -5034,10 +4955,10 @@
         <v>276</v>
       </c>
       <c r="I35">
-        <v>41.933869000000001</v>
+        <v>41.933869</v>
       </c>
       <c r="J35">
-        <v>-88.766428000000005</v>
+        <v>-88.766428</v>
       </c>
       <c r="K35">
         <v>33</v>
@@ -5076,7 +4997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>278</v>
       </c>
@@ -5102,10 +5023,10 @@
         <v>283</v>
       </c>
       <c r="I36">
-        <v>39.326797999999997</v>
+        <v>39.326798</v>
       </c>
       <c r="J36">
-        <v>-82.100984999999994</v>
+        <v>-82.100985</v>
       </c>
       <c r="K36">
         <v>34</v>
@@ -5144,7 +5065,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>286</v>
       </c>
@@ -5170,10 +5091,10 @@
         <v>290</v>
       </c>
       <c r="I37">
-        <v>41.078550999999997</v>
+        <v>41.078551</v>
       </c>
       <c r="J37">
-        <v>-81.511679000000001</v>
+        <v>-81.511679</v>
       </c>
       <c r="K37">
         <v>35</v>
@@ -5212,7 +5133,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -5238,10 +5159,10 @@
         <v>298</v>
       </c>
       <c r="I38">
-        <v>43.000942000000002</v>
+        <v>43.000942</v>
       </c>
       <c r="J38">
-        <v>-78.789457999999996</v>
+        <v>-78.789458</v>
       </c>
       <c r="K38">
         <v>36</v>
@@ -5280,7 +5201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>300</v>
       </c>
@@ -5306,10 +5227,10 @@
         <v>304</v>
       </c>
       <c r="I39">
-        <v>41.660572000000002</v>
+        <v>41.660572</v>
       </c>
       <c r="J39">
-        <v>-83.614714000000006</v>
+        <v>-83.614714</v>
       </c>
       <c r="K39">
         <v>37</v>
@@ -5348,7 +5269,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>307</v>
       </c>
@@ -5374,10 +5295,10 @@
         <v>312</v>
       </c>
       <c r="I40">
-        <v>42.282193999999997</v>
+        <v>42.282194</v>
       </c>
       <c r="J40">
-        <v>-85.613759000000002</v>
+        <v>-85.613759</v>
       </c>
       <c r="K40">
         <v>38</v>
@@ -5416,7 +5337,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>315</v>
       </c>
@@ -5442,10 +5363,10 @@
         <v>320</v>
       </c>
       <c r="I41">
-        <v>42.026212000000001</v>
+        <v>42.026212</v>
       </c>
       <c r="J41">
-        <v>-93.648504000000003</v>
+        <v>-93.648504</v>
       </c>
       <c r="K41">
         <v>39</v>
@@ -5484,7 +5405,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>322</v>
       </c>
@@ -5510,10 +5431,10 @@
         <v>328</v>
       </c>
       <c r="I42">
-        <v>30.618725999999999</v>
+        <v>30.618726</v>
       </c>
       <c r="J42">
-        <v>-96.336474999999993</v>
+        <v>-96.336475</v>
       </c>
       <c r="K42">
         <v>40</v>
@@ -5552,7 +5473,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -5578,7 +5499,7 @@
         <v>336</v>
       </c>
       <c r="I43">
-        <v>38.539667000000001</v>
+        <v>38.539667</v>
       </c>
       <c r="J43">
         <v>-121.749567</v>
@@ -5620,7 +5541,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>339</v>
       </c>
@@ -5646,10 +5567,10 @@
         <v>92697</v>
       </c>
       <c r="I44">
-        <v>33.648434000000002</v>
+        <v>33.648434</v>
       </c>
       <c r="J44">
-        <v>-117.84124799999999</v>
+        <v>-117.841248</v>
       </c>
       <c r="K44">
         <v>42</v>
@@ -5688,7 +5609,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>346</v>
       </c>
@@ -5714,7 +5635,7 @@
         <v>92093</v>
       </c>
       <c r="I45">
-        <v>32.877749000000001</v>
+        <v>32.877749</v>
       </c>
       <c r="J45">
         <v>-117.235866</v>
@@ -5756,7 +5677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -5785,7 +5706,7 @@
         <v>34.416297</v>
       </c>
       <c r="J46">
-        <v>-119.84642599999999</v>
+        <v>-119.846426</v>
       </c>
       <c r="K46">
         <v>44</v>
@@ -5824,7 +5745,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>359</v>
       </c>
@@ -5853,7 +5774,7 @@
         <v>29.64629</v>
       </c>
       <c r="J47">
-        <v>-82.347910999999996</v>
+        <v>-82.347911</v>
       </c>
       <c r="K47">
         <v>45</v>
@@ -5892,7 +5813,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>367</v>
       </c>
@@ -5918,10 +5839,10 @@
         <v>65211</v>
       </c>
       <c r="I48">
-        <v>38.945309999999999</v>
+        <v>38.94531</v>
       </c>
       <c r="J48">
-        <v>-92.328843000000006</v>
+        <v>-92.328843</v>
       </c>
       <c r="K48">
         <v>46</v>
@@ -5960,7 +5881,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>374</v>
       </c>
@@ -5986,10 +5907,10 @@
         <v>380</v>
       </c>
       <c r="I49">
-        <v>33.772419999999997</v>
+        <v>33.77242</v>
       </c>
       <c r="J49">
-        <v>-84.394831999999994</v>
+        <v>-84.394832</v>
       </c>
       <c r="K49">
         <v>47</v>
@@ -6028,7 +5949,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>383</v>
       </c>
@@ -6054,10 +5975,10 @@
         <v>387</v>
       </c>
       <c r="I50">
-        <v>40.914760000000001</v>
+        <v>40.91476</v>
       </c>
       <c r="J50">
-        <v>-73.120459999999994</v>
+        <v>-73.12046</v>
       </c>
       <c r="K50">
         <v>48</v>
@@ -6096,7 +6017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>388</v>
       </c>
@@ -6122,10 +6043,10 @@
         <v>66045</v>
       </c>
       <c r="I51">
-        <v>38.958548999999998</v>
+        <v>38.958549</v>
       </c>
       <c r="J51">
-        <v>-95.247567000000004</v>
+        <v>-95.247567</v>
       </c>
       <c r="K51">
         <v>49</v>
@@ -6164,7 +6085,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -6193,7 +6114,7 @@
         <v>35.911769</v>
       </c>
       <c r="J52">
-        <v>-79.050968999999995</v>
+        <v>-79.050969</v>
       </c>
       <c r="K52">
         <v>50</v>
@@ -6232,7 +6153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>403</v>
       </c>
@@ -6258,10 +6179,10 @@
         <v>15260</v>
       </c>
       <c r="I53">
-        <v>40.444387999999996</v>
+        <v>40.444388</v>
       </c>
       <c r="J53">
-        <v>-79.953254000000001</v>
+        <v>-79.953254</v>
       </c>
       <c r="K53">
         <v>51</v>
@@ -6300,7 +6221,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>410</v>
       </c>
@@ -6326,10 +6247,10 @@
         <v>78705</v>
       </c>
       <c r="I54">
-        <v>30.282824999999999</v>
+        <v>30.282825</v>
       </c>
       <c r="J54">
-        <v>-97.738273000000007</v>
+        <v>-97.738273</v>
       </c>
       <c r="K54">
         <v>52</v>
@@ -6368,7 +6289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>416</v>
       </c>
@@ -6394,7 +6315,7 @@
         <v>422</v>
       </c>
       <c r="I55">
-        <v>38.035665000000002</v>
+        <v>38.035665</v>
       </c>
       <c r="J55">
         <v>-78.503428</v>
@@ -6436,7 +6357,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>425</v>
       </c>
@@ -6462,10 +6383,10 @@
         <v>430</v>
       </c>
       <c r="I56">
-        <v>47.118659999999998</v>
+        <v>47.11866</v>
       </c>
       <c r="J56">
-        <v>-88.548091999999997</v>
+        <v>-88.548092</v>
       </c>
       <c r="K56">
         <v>54</v>
@@ -6504,7 +6425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -6530,10 +6451,10 @@
         <v>437</v>
       </c>
       <c r="I57">
-        <v>46.559750999999999</v>
+        <v>46.559751</v>
       </c>
       <c r="J57">
-        <v>-87.406567999999993</v>
+        <v>-87.406568</v>
       </c>
       <c r="K57">
         <v>55</v>
@@ -6572,7 +6493,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>440</v>
       </c>
@@ -6601,7 +6522,7 @@
         <v>42.317287</v>
       </c>
       <c r="J58">
-        <v>-83.231416999999993</v>
+        <v>-83.231417</v>
       </c>
       <c r="K58">
         <v>56</v>
@@ -6640,7 +6561,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>448</v>
       </c>
@@ -6666,10 +6587,10 @@
         <v>453</v>
       </c>
       <c r="I59">
-        <v>43.018749999999997</v>
+        <v>43.01875</v>
       </c>
       <c r="J59">
-        <v>-83.690275999999997</v>
+        <v>-83.690276</v>
       </c>
       <c r="K59">
         <v>57</v>
@@ -6708,7 +6629,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>454</v>
       </c>
@@ -6734,10 +6655,10 @@
         <v>48202</v>
       </c>
       <c r="I60">
-        <v>42.358994000000003</v>
+        <v>42.358994</v>
       </c>
       <c r="J60">
-        <v>-83.068997999999993</v>
+        <v>-83.068998</v>
       </c>
       <c r="K60">
         <v>58</v>
@@ -6776,7 +6697,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -6802,10 +6723,10 @@
         <v>466</v>
       </c>
       <c r="I61">
-        <v>42.963000999999998</v>
+        <v>42.963001</v>
       </c>
       <c r="J61">
-        <v>-85.889825999999999</v>
+        <v>-85.889826</v>
       </c>
       <c r="K61">
         <v>59</v>
@@ -6844,7 +6765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>468</v>
       </c>
@@ -6870,10 +6791,10 @@
         <v>49242</v>
       </c>
       <c r="I62">
-        <v>41.933681999999997</v>
+        <v>41.933682</v>
       </c>
       <c r="J62">
-        <v>-84.633195000000001</v>
+        <v>-84.633195</v>
       </c>
       <c r="K62">
         <v>60</v>
@@ -6912,7 +6833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>473</v>
       </c>
@@ -6941,7 +6862,7 @@
         <v>42.787298</v>
       </c>
       <c r="J63">
-        <v>-86.102089000000007</v>
+        <v>-86.102089</v>
       </c>
       <c r="K63">
         <v>61</v>
@@ -6980,7 +6901,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -7006,10 +6927,10 @@
         <v>484</v>
       </c>
       <c r="I64">
-        <v>42.290788999999997</v>
+        <v>42.290789</v>
       </c>
       <c r="J64">
-        <v>-85.601856999999995</v>
+        <v>-85.601857</v>
       </c>
       <c r="K64">
         <v>62</v>
@@ -7048,7 +6969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>486</v>
       </c>
@@ -7074,10 +6995,10 @@
         <v>491</v>
       </c>
       <c r="I65">
-        <v>42.674573000000002</v>
+        <v>42.674573</v>
       </c>
       <c r="J65">
-        <v>-83.216418000000004</v>
+        <v>-83.216418</v>
       </c>
       <c r="K65">
         <v>63</v>
@@ -7116,7 +7037,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>493</v>
       </c>
@@ -7142,10 +7063,10 @@
         <v>49076</v>
       </c>
       <c r="I66">
-        <v>42.442891000000003</v>
+        <v>42.442891</v>
       </c>
       <c r="J66">
-        <v>-84.923890999999998</v>
+        <v>-84.923891</v>
       </c>
       <c r="K66">
         <v>64</v>
@@ -7184,7 +7105,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>498</v>
       </c>
@@ -7210,10 +7131,10 @@
         <v>48710</v>
       </c>
       <c r="I67">
-        <v>43.511760000000002</v>
+        <v>43.51176</v>
       </c>
       <c r="J67">
-        <v>-83.964273000000006</v>
+        <v>-83.964273</v>
       </c>
       <c r="K67">
         <v>65</v>
@@ -7252,7 +7173,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>505</v>
       </c>
@@ -7278,10 +7199,10 @@
         <v>49546</v>
       </c>
       <c r="I68">
-        <v>42.929915999999999</v>
+        <v>42.929916</v>
       </c>
       <c r="J68">
-        <v>-85.587547999999998</v>
+        <v>-85.587548</v>
       </c>
       <c r="K68">
         <v>66</v>
@@ -7320,7 +7241,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>512</v>
       </c>
@@ -7346,10 +7267,10 @@
         <v>516</v>
       </c>
       <c r="I69">
-        <v>41.898591000000003</v>
+        <v>41.898591</v>
       </c>
       <c r="J69">
-        <v>-84.061481000000001</v>
+        <v>-84.061481</v>
       </c>
       <c r="K69">
         <v>67</v>
@@ -7388,7 +7309,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
         <v>518</v>
       </c>
@@ -7414,10 +7335,10 @@
         <v>49224</v>
       </c>
       <c r="I70">
-        <v>42.245049000000002</v>
+        <v>42.245049</v>
       </c>
       <c r="J70">
-        <v>-84.745638999999997</v>
+        <v>-84.745639</v>
       </c>
       <c r="K70">
         <v>68</v>
@@ -7456,7 +7377,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>524</v>
       </c>
@@ -7482,10 +7403,10 @@
         <v>528</v>
       </c>
       <c r="I71">
-        <v>43.380040000000001</v>
+        <v>43.38004</v>
       </c>
       <c r="J71">
-        <v>-84.672053000000005</v>
+        <v>-84.672053</v>
       </c>
       <c r="K71">
         <v>69</v>
@@ -7524,7 +7445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
         <v>530</v>
       </c>
@@ -7550,10 +7471,10 @@
         <v>535</v>
       </c>
       <c r="I72">
-        <v>43.687724000000003</v>
+        <v>43.687724</v>
       </c>
       <c r="J72">
-        <v>-85.481925000000004</v>
+        <v>-85.481925</v>
       </c>
       <c r="K72">
         <v>70</v>
@@ -7592,7 +7513,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
         <v>537</v>
       </c>
@@ -7618,10 +7539,10 @@
         <v>541</v>
       </c>
       <c r="I73">
-        <v>42.414222000000002</v>
+        <v>42.414222</v>
       </c>
       <c r="J73">
-        <v>-83.139157999999995</v>
+        <v>-83.139158</v>
       </c>
       <c r="K73">
         <v>71</v>
@@ -7660,7 +7581,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
         <v>544</v>
       </c>
@@ -7686,10 +7607,10 @@
         <v>548</v>
       </c>
       <c r="I74">
-        <v>33.752699999999997</v>
+        <v>33.7527</v>
       </c>
       <c r="J74">
-        <v>-84.386669999999995</v>
+        <v>-84.38667</v>
       </c>
       <c r="K74">
         <v>72</v>
@@ -7728,7 +7649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>550</v>
       </c>
@@ -7754,10 +7675,10 @@
         <v>30602</v>
       </c>
       <c r="I75">
-        <v>33.956262000000002</v>
+        <v>33.956262</v>
       </c>
       <c r="J75">
-        <v>-83.374038999999996</v>
+        <v>-83.374039</v>
       </c>
       <c r="K75">
         <v>73</v>
@@ -7796,7 +7717,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>554</v>
       </c>
@@ -7822,10 +7743,10 @@
         <v>46556</v>
       </c>
       <c r="I76">
-        <v>41.703057999999999</v>
+        <v>41.703058</v>
       </c>
       <c r="J76">
-        <v>-86.238958999999994</v>
+        <v>-86.238959</v>
       </c>
       <c r="K76">
         <v>74</v>
@@ -7864,7 +7785,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>560</v>
       </c>
@@ -7890,10 +7811,10 @@
         <v>37996</v>
       </c>
       <c r="I77">
-        <v>35.952081999999997</v>
+        <v>35.952082</v>
       </c>
       <c r="J77">
-        <v>-83.925852000000006</v>
+        <v>-83.925852</v>
       </c>
       <c r="K77">
         <v>75</v>
@@ -7932,7 +7853,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>567</v>
       </c>
@@ -7958,10 +7879,10 @@
         <v>26506</v>
       </c>
       <c r="I78">
-        <v>39.634371000000002</v>
+        <v>39.634371</v>
       </c>
       <c r="J78">
-        <v>-79.954391000000001</v>
+        <v>-79.954391</v>
       </c>
       <c r="K78">
         <v>76</v>
@@ -8000,7 +7921,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>575</v>
       </c>
@@ -8026,10 +7947,10 @@
         <v>580</v>
       </c>
       <c r="I79">
-        <v>37.229011999999997</v>
+        <v>37.229012</v>
       </c>
       <c r="J79">
-        <v>-80.423675000000003</v>
+        <v>-80.423675</v>
       </c>
       <c r="K79">
         <v>77</v>
@@ -8068,7 +7989,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
         <v>583</v>
       </c>
@@ -8094,10 +8015,10 @@
         <v>589</v>
       </c>
       <c r="I80">
-        <v>38.038910999999999</v>
+        <v>38.038911</v>
       </c>
       <c r="J80">
-        <v>-84.504746999999995</v>
+        <v>-84.504747</v>
       </c>
       <c r="K80">
         <v>78</v>
@@ -8136,7 +8057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
         <v>591</v>
       </c>
@@ -8162,7 +8083,7 @@
         <v>596</v>
       </c>
       <c r="I81">
-        <v>40.574804999999998</v>
+        <v>40.574805</v>
       </c>
       <c r="J81">
         <v>-105.080732</v>
@@ -8204,7 +8125,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>599</v>
       </c>
@@ -8230,7 +8151,7 @@
         <v>27708</v>
       </c>
       <c r="I82">
-        <v>36.001134999999998</v>
+        <v>36.001135</v>
       </c>
       <c r="J82">
         <v>-78.937624</v>
@@ -8272,7 +8193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>605</v>
       </c>
@@ -8301,7 +8222,7 @@
         <v>30.440756</v>
       </c>
       <c r="J83">
-        <v>-84.291921000000002</v>
+        <v>-84.291921</v>
       </c>
       <c r="K83">
         <v>81</v>
@@ -8340,7 +8261,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>613</v>
       </c>
@@ -8366,10 +8287,10 @@
         <v>619</v>
       </c>
       <c r="I84">
-        <v>32.428465000000003</v>
+        <v>32.428465</v>
       </c>
       <c r="J84">
-        <v>-93.705609999999993</v>
+        <v>-93.70561</v>
       </c>
       <c r="K84">
         <v>82</v>
@@ -8408,7 +8329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
         <v>622</v>
       </c>
@@ -8434,7 +8355,7 @@
         <v>89154</v>
       </c>
       <c r="I85">
-        <v>36.106046999999997</v>
+        <v>36.106047</v>
       </c>
       <c r="J85">
         <v>-115.138462</v>
@@ -8476,7 +8397,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>629</v>
       </c>
@@ -8502,10 +8423,10 @@
         <v>635</v>
       </c>
       <c r="I86">
-        <v>33.211874999999999</v>
+        <v>33.211875</v>
       </c>
       <c r="J86">
-        <v>-87.545978000000005</v>
+        <v>-87.545978</v>
       </c>
       <c r="K86">
         <v>84</v>
@@ -8544,7 +8465,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
         <v>638</v>
       </c>
@@ -8570,10 +8491,10 @@
         <v>29208</v>
       </c>
       <c r="I87">
-        <v>33.996788000000002</v>
+        <v>33.996788</v>
       </c>
       <c r="J87">
-        <v>-81.026934999999995</v>
+        <v>-81.026935</v>
       </c>
       <c r="K87">
         <v>85</v>
@@ -8612,7 +8533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22">
       <c r="A88" t="s">
         <v>644</v>
       </c>
@@ -8638,10 +8559,10 @@
         <v>13244</v>
       </c>
       <c r="I88">
-        <v>43.040176000000002</v>
+        <v>43.040176</v>
       </c>
       <c r="J88">
-        <v>-76.136975000000007</v>
+        <v>-76.136975</v>
       </c>
       <c r="K88">
         <v>86</v>
@@ -8680,7 +8601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>649</v>
       </c>
@@ -8706,10 +8627,10 @@
         <v>654</v>
       </c>
       <c r="I89">
-        <v>28.061457999999998</v>
+        <v>28.061458</v>
       </c>
       <c r="J89">
-        <v>-82.413231999999994</v>
+        <v>-82.413232</v>
       </c>
       <c r="K89">
         <v>87</v>
@@ -8748,7 +8669,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
         <v>657</v>
       </c>
@@ -8774,10 +8695,10 @@
         <v>22807</v>
       </c>
       <c r="I90">
-        <v>38.436311000000003</v>
+        <v>38.436311</v>
       </c>
       <c r="J90">
-        <v>-78.870484000000005</v>
+        <v>-78.870484</v>
       </c>
       <c r="K90">
         <v>88</v>
@@ -8816,7 +8737,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>664</v>
       </c>
@@ -8842,10 +8763,10 @@
         <v>36849</v>
       </c>
       <c r="I91">
-        <v>32.599378000000002</v>
+        <v>32.599378</v>
       </c>
       <c r="J91">
-        <v>-85.488258000000002</v>
+        <v>-85.488258</v>
       </c>
       <c r="K91">
         <v>89</v>
@@ -8884,7 +8805,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>670</v>
       </c>
@@ -8910,10 +8831,10 @@
         <v>675</v>
       </c>
       <c r="I92">
-        <v>39.709108000000001</v>
+        <v>39.709108</v>
       </c>
       <c r="J92">
-        <v>-75.119118999999998</v>
+        <v>-75.119119</v>
       </c>
       <c r="K92">
         <v>90</v>
@@ -8952,7 +8873,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>677</v>
       </c>
@@ -8978,10 +8899,10 @@
         <v>682</v>
       </c>
       <c r="I93">
-        <v>38.829976000000002</v>
+        <v>38.829976</v>
       </c>
       <c r="J93">
-        <v>-77.307428000000002</v>
+        <v>-77.307428</v>
       </c>
       <c r="K93">
         <v>91</v>
@@ -9026,75 +8947,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -9120,10 +9026,10 @@
         <v>312</v>
       </c>
       <c r="I2">
-        <v>42.282193999999997</v>
+        <v>42.282194</v>
       </c>
       <c r="J2">
-        <v>-85.613759000000002</v>
+        <v>-85.613759</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9135,7 +9041,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -9161,10 +9067,10 @@
         <v>47306</v>
       </c>
       <c r="I3">
-        <v>40.203431000000002</v>
+        <v>40.203431</v>
       </c>
       <c r="J3">
-        <v>-85.409042999999997</v>
+        <v>-85.409043</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -9176,7 +9082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>684</v>
       </c>
@@ -9202,10 +9108,10 @@
         <v>689</v>
       </c>
       <c r="I4">
-        <v>35.607185999999999</v>
+        <v>35.607186</v>
       </c>
       <c r="J4">
-        <v>-77.368290999999999</v>
+        <v>-77.368291</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -9217,7 +9123,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -9243,10 +9149,10 @@
         <v>262</v>
       </c>
       <c r="I5">
-        <v>41.146653000000001</v>
+        <v>41.146653</v>
       </c>
       <c r="J5">
-        <v>-81.342533000000003</v>
+        <v>-81.342533</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -9258,7 +9164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>692</v>
       </c>
@@ -9284,7 +9190,7 @@
         <v>697</v>
       </c>
       <c r="I6">
-        <v>35.188448999999999</v>
+        <v>35.188449</v>
       </c>
       <c r="J6">
         <v>-111.653724</v>
@@ -9299,7 +9205,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -9325,10 +9231,10 @@
         <v>276</v>
       </c>
       <c r="I7">
-        <v>41.933869000000001</v>
+        <v>41.933869</v>
       </c>
       <c r="J7">
-        <v>-88.766428000000005</v>
+        <v>-88.766428</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -9340,7 +9246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -9366,10 +9272,10 @@
         <v>283</v>
       </c>
       <c r="I8">
-        <v>39.326797999999997</v>
+        <v>39.326798</v>
       </c>
       <c r="J8">
-        <v>-82.100984999999994</v>
+        <v>-82.100985</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -9381,7 +9287,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>700</v>
       </c>
@@ -9407,10 +9313,10 @@
         <v>706</v>
       </c>
       <c r="I9">
-        <v>36.123085000000003</v>
+        <v>36.123085</v>
       </c>
       <c r="J9">
-        <v>-97.069743000000003</v>
+        <v>-97.069743</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -9422,7 +9328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>708</v>
       </c>
@@ -9448,7 +9354,7 @@
         <v>97201</v>
       </c>
       <c r="I10">
-        <v>45.511600999999999</v>
+        <v>45.511601</v>
       </c>
       <c r="J10">
         <v>-122.686289</v>
@@ -9463,7 +9369,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>715</v>
       </c>
@@ -9492,7 +9398,7 @@
         <v>42.087868</v>
       </c>
       <c r="J11">
-        <v>-75.966888999999995</v>
+        <v>-75.966889</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -9504,7 +9410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>629</v>
       </c>
@@ -9530,10 +9436,10 @@
         <v>635</v>
       </c>
       <c r="I12">
-        <v>33.211874999999999</v>
+        <v>33.211875</v>
       </c>
       <c r="J12">
-        <v>-87.545978000000005</v>
+        <v>-87.545978</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -9545,7 +9451,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>722</v>
       </c>
@@ -9571,10 +9477,10 @@
         <v>38152</v>
       </c>
       <c r="I13">
-        <v>35.118878000000002</v>
+        <v>35.118878</v>
       </c>
       <c r="J13">
-        <v>-89.938068000000001</v>
+        <v>-89.938068</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -9586,7 +9492,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>622</v>
       </c>
@@ -9612,7 +9518,7 @@
         <v>89154</v>
       </c>
       <c r="I14">
-        <v>36.106046999999997</v>
+        <v>36.106047</v>
       </c>
       <c r="J14">
         <v>-115.138462</v>
@@ -9627,7 +9533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>728</v>
       </c>
@@ -9653,10 +9559,10 @@
         <v>733</v>
       </c>
       <c r="I15">
-        <v>36.068235999999999</v>
+        <v>36.068236</v>
       </c>
       <c r="J15">
-        <v>-79.809414000000004</v>
+        <v>-79.809414</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -9668,7 +9574,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>736</v>
       </c>
@@ -9694,10 +9600,10 @@
         <v>742</v>
       </c>
       <c r="I16">
-        <v>47.921653999999997</v>
+        <v>47.921654</v>
       </c>
       <c r="J16">
-        <v>-97.071737999999996</v>
+        <v>-97.071738</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -9709,7 +9615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -9735,10 +9641,10 @@
         <v>750</v>
       </c>
       <c r="I17">
-        <v>31.326609999999999</v>
+        <v>31.32661</v>
       </c>
       <c r="J17">
-        <v>-89.331236000000004</v>
+        <v>-89.331236</v>
       </c>
       <c r="K17">
         <v>16</v>
